--- a/Spreadsheet/Introduction to Google Sheets/data/Most Populous Countries.xlsx
+++ b/Spreadsheet/Introduction to Google Sheets/data/Most Populous Countries.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="190" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Country</t>
   </si>
@@ -68,93 +71,127 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>Land Area (mile2)</t>
+  </si>
+  <si>
+    <t>km2 to mile2</t>
+  </si>
+  <si>
+    <t>Rounded miles2</t>
+  </si>
+  <si>
+    <t>Pop Density(km2)</t>
+  </si>
+  <si>
+    <t>Pop Density(mile2)</t>
+  </si>
+  <si>
+    <t>Overpopulated?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -344,20 +381,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,153 +416,372 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
-        <v>1.409517397E9</v>
-      </c>
-      <c r="D2" s="7">
-        <v>9326410.0</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="5">
+        <v>1409517397</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9326410</v>
+      </c>
+      <c r="E2" s="10">
+        <f>D2*$B$13</f>
+        <v>3600945.55382</v>
+      </c>
+      <c r="F2" s="11">
+        <f>ROUND(E2,0)</f>
+        <v>3600946</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$C2/D2</f>
+        <v>151.13182853852661</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:H11" si="0">$C2/E2</f>
+        <v>391.42979973822105</v>
+      </c>
+      <c r="I2" s="11" t="b">
+        <f>G2&gt;100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.339180127E9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2973190.0</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="5">
+        <v>1339180127</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2973190</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E11" si="1">D3*$B$13</f>
+        <v>1147954.6053800001</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F11" si="2">ROUND(E3,0)</f>
+        <v>1147955</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G11" si="3">$C3/D3</f>
+        <v>450.41861670461691</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
+        <v>1166.5793409633125</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <f t="shared" ref="I3:I11" si="4">G3&gt;100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>3.24459463E8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9147593.0</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="5">
+        <v>324459463</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9147593</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
+        <v>3531903.952486</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="2"/>
+        <v>3531904</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="3"/>
+        <v>35.469381180382641</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>91.865313260181622</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.63991379E8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1811569.0</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="5">
+        <v>263991379</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1811569</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>699450.41403800005</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
+        <v>699450</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="3"/>
+        <v>145.7252685379359</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>377.42686786894626</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
-        <v>2.09288278E8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>8460415.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="7">
+        <v>209288278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8460415</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>3266583.15233</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="2"/>
+        <v>3266583</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="3"/>
+        <v>24.737353664093309</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>64.069478179582887</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
-        <v>1.97015955E8</v>
-      </c>
-      <c r="D7" s="9">
-        <v>881912.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="7">
+        <v>197015955</v>
+      </c>
+      <c r="D7" s="7">
+        <v>881912</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>340507.98702399997</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
+        <v>340508</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="3"/>
+        <v>223.39638762144068</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>578.59422541566914</v>
+      </c>
+      <c r="I7" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
-        <v>1.90886311E8</v>
-      </c>
-      <c r="D8" s="9">
-        <v>910768.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="7">
+        <v>190886311</v>
+      </c>
+      <c r="D8" s="7">
+        <v>910768</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>351649.34633600002</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>351649</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="3"/>
+        <v>209.58829361593732</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>542.83141142997783</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
-        <v>1.64669751E8</v>
-      </c>
-      <c r="D9" s="9">
-        <v>130168.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="7">
+        <v>164669751</v>
+      </c>
+      <c r="D9" s="7">
+        <v>130168</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>50258.125136000002</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>50258</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="3"/>
+        <v>1265.0555512875669</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>3276.4801821476367</v>
+      </c>
+      <c r="I9" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9">
-        <v>1.43989754E8</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1.6377742E7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="7">
+        <v>143989754</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16377742</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>6323478.9416840002</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>6323479</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="3"/>
+        <v>8.7917952303803535</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>22.770654465349452</v>
+      </c>
+      <c r="I10" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
-        <v>1.29163276E8</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1943945.0</v>
+      <c r="C11" s="7">
+        <v>129163276</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1943945</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>750561.05238999997</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>750561</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="3"/>
+        <v>66.44389424597918</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>172.08896676520502</v>
+      </c>
+      <c r="I11" s="11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.386102</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>